--- a/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_4/out_of_sample/additive/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_4/out_of_sample/additive/ranking_test2/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.33</v>
+        <v>0.606</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>29.935</v>
+        <v>15.896</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.127</v>
+        <v>0.6830000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>29.831</v>
+        <v>15.822</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.159</v>
+        <v>0.963</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.795</v>
+        <v>5.178</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1.983339014582882</v>
+        <v>11.43683955024671</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>17.52064159981393</v>
+        <v>8.057046313910675</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>22.57570216107503</v>
+        <v>15.4637477178173</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-2.949324862725049</v>
+        <v>2.440716366963343</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>13.70258012034159</v>
+        <v>11.09657063969189</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>19.49043242668143</v>
+        <v>9.825349573830451</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3.169086325669468</v>
+        <v>7.061321185950725</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>18.51761076934913</v>
+        <v>21.97874245776602</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>23.62902537226878</v>
+        <v>21.98374056116412</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>22.20693144451342</v>
+        <v>6.232193686814391</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>29.95803484734889</v>
+        <v>11.4730605078615</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>33.73515518347909</v>
+        <v>12.79911544162206</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5.268726225864427</v>
+        <v>14.44670522382729</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>23.10853618136255</v>
+        <v>1.331745825612067</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>29.54719732797918</v>
+        <v>12.29956787289836</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5.530051558067242</v>
+        <v>12.92682243178739</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>21.43137231366846</v>
+        <v>19.36833311346627</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>26.6189745417073</v>
+        <v>24.011789243929</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-0.7024605746175183</v>
+        <v>6.024062996765785</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>16.25273417685541</v>
+        <v>9.030029481503981</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>22.23274036556852</v>
+        <v>11.90387684661274</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5.925301686804175</v>
+        <v>1.034424224186793</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>21.67396760176605</v>
+        <v>12.11016012496882</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>3.539823181589924</v>
+        <v>15.65895901007873</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>19.16677890370339</v>
+        <v>18.59424172038081</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>24.21738888052543</v>
+        <v>19.5676395361459</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>-1.266544764040447</v>
+        <v>1.561935830173979</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>15.48877125652164</v>
+        <v>25.53271405222922</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>21.27263036607617</v>
+        <v>24.33139668511046</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>4.954346320689027</v>
+        <v>4.947857768467593</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>20.39174367258881</v>
+        <v>36.11151468367913</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>25.49829348874767</v>
+        <v>31.17692790852101</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>24.00054976139331</v>
+        <v>32.59048876902551</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>31.76471416508424</v>
+        <v>40.112851766923</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>35.54035698619629</v>
+        <v>41.21486682340469</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6.924687960428116</v>
+        <v>19.60515731447954</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>24.88249539854363</v>
+        <v>26.96647848499685</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>31.31031532419882</v>
+        <v>31.8098571075907</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>7.101234397309526</v>
+        <v>16.170134119215</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>23.09227159015366</v>
+        <v>25.37435237855698</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>28.27728221060083</v>
+        <v>29.13183056176036</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.9925484628031285</v>
+        <v>5.663050750089411</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>18.05115816113921</v>
+        <v>20.65341618945082</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>24.02902854998555</v>
+        <v>29.89127306716497</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>23.56279355849963</v>
+        <v>34.63215688629457</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>3.872502726473598</v>
+        <v>10.81939131473964</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>19.50656251107478</v>
+        <v>17.13056812574067</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>24.55700898845446</v>
+        <v>19.54400469077998</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-0.8907564823916374</v>
+        <v>0.7669524658061455</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>15.87330259574092</v>
+        <v>25.65030769309809</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>21.65769336915699</v>
+        <v>28.23693676334215</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>5.340945481788381</v>
+        <v>6.139177977433498</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>20.78554762554423</v>
+        <v>38.4594882766382</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>25.89175372185458</v>
+        <v>37.13439979157364</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>24.38030295347811</v>
+        <v>37.62349530212549</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>32.13942253006072</v>
+        <v>41.1353572745407</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>35.91491822737952</v>
+        <v>46.01768773322347</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>7.284056544920077</v>
+        <v>10.68587603733896</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>25.25695308703192</v>
+        <v>20.47121580030045</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>31.6824370069556</v>
+        <v>27.63837817116394</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>7.436779109816825</v>
+        <v>11.39613253659324</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>23.43433417937833</v>
+        <v>20.93839628957006</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>28.61973053308502</v>
+        <v>28.18627323615165</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>1.371346695786201</v>
+        <v>3.699716648951394</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>18.43812320767756</v>
+        <v>16.97366526179711</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>24.41705441651999</v>
+        <v>32.27311258751148</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>8.115062911238297</v>
+        <v>1.95773865131067</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>23.95923937864833</v>
+        <v>31.65508699859141</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>2.79880919604976</v>
+        <v>3.952027549837922</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>18.40671098932367</v>
+        <v>12.62254093414476</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>23.47138794966631</v>
+        <v>18.26940168933291</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>-2.046579304577136</v>
+        <v>-0.3091572494815793</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>14.6848644504084</v>
+        <v>23.9703235530021</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>20.48500730615353</v>
+        <v>27.7506903525089</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>4.131818394783565</v>
+        <v>0.881075242823627</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>19.55042716451133</v>
+        <v>34.30651111140381</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>24.67120403481647</v>
+        <v>35.80744838830822</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>23.19937191242828</v>
+        <v>27.47911616103913</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>30.96394090540095</v>
+        <v>31.12766853945235</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>34.74922135783748</v>
+        <v>34.66716051357611</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>6.15724520902684</v>
+        <v>7.265504038762984</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>24.09144496489052</v>
+        <v>13.0499154927979</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>30.53833311304942</v>
+        <v>25.99807773597748</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>6.359222350269278</v>
+        <v>7.444532138686618</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>22.3312091435632</v>
+        <v>22.15639928077538</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>27.52994103805712</v>
+        <v>29.78418422207222</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>0.2108427196460241</v>
+        <v>4.635945879298049</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>17.2455159651949</v>
+        <v>19.06759278777093</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>23.23941325453813</v>
+        <v>31.6222152517819</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>6.900564892598624</v>
+        <v>0.5891692891428093</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>22.71941291932218</v>
+        <v>29.0755514202606</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>26.89960570687902</v>
+        <v>16.54765104628613</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>24.87238554851778</v>
+        <v>13.03112961024637</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>33.32030686235705</v>
+        <v>31.05724315094411</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>37.33504670011456</v>
+        <v>32.62844084007788</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>8.420124053766791</v>
+        <v>5.790986126442526</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>27.23372758456676</v>
+        <v>11.17872486830024</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>33.6728895953294</v>
+        <v>14.45277184435259</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>12.05087657239338</v>
+        <v>15.92973118558296</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>28.59825593461009</v>
+        <v>18.22144530281864</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>34.24103975260935</v>
+        <v>27.19233415963698</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>6.741911359811866</v>
+        <v>3.767176221482963</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>24.57897685868651</v>
+        <v>6.399997409461712</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>30.98679829909516</v>
+        <v>9.293236332826204</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>14.37842251401291</v>
+        <v>1.726510926765563</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>30.74619789625108</v>
+        <v>15.61405097723526</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>36.45664205809376</v>
+        <v>29.14358532377307</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>34.7447383805603</v>
+        <v>17.96377459700951</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>43.26420595522018</v>
+        <v>35.36402756643709</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>47.43995316126517</v>
+        <v>40.07527432042634</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>16.87466670614939</v>
+        <v>6.19887194626633</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>36.4307508807309</v>
+        <v>11.87081195407945</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>43.48268998425171</v>
+        <v>22.3156605117773</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>28.78549464462532</v>
+        <v>43.77724172828009</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>26.67774136319429</v>
+        <v>38.69037577651135</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>35.13879562316861</v>
+        <v>49.72377205656692</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>39.15288990092783</v>
+        <v>54.8581400872116</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>10.09095619021133</v>
+        <v>18.96939998750644</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>29.02393607712799</v>
+        <v>47.12134445844739</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>35.45401611460919</v>
+        <v>48.87751725941187</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>13.66513865149792</v>
+        <v>24.44890070985765</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>30.30374443262664</v>
+        <v>34.73288501270539</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>35.94207510193375</v>
+        <v>39.76756799523989</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>8.481850530516496</v>
+        <v>9.719077941089502</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>26.42398086213144</v>
+        <v>32.28259500154883</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>32.82816399583987</v>
+        <v>37.86708151510133</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>16.22649896170308</v>
+        <v>9.572192059602408</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>32.68474541267692</v>
+        <v>51.92670307783015</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>38.39027984253512</v>
+        <v>60.82535763220204</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>36.59671462770054</v>
+        <v>66.43705252818191</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>45.12983119844736</v>
+        <v>72.65300420893388</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>49.30341123345514</v>
+        <v>77.55861338207376</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>18.5913889794975</v>
+        <v>33.27921761250894</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>38.26716051278631</v>
+        <v>65.17535275593417</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>45.30936146111999</v>
+        <v>70.00984130273167</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>29.18217594358308</v>
+        <v>49.26685305103428</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>27.05934100683061</v>
+        <v>33.01813951942514</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>35.5146389208481</v>
+        <v>38.96716788196779</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>39.5287859084585</v>
+        <v>52.44927209394564</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>10.45339928732834</v>
+        <v>12.58580527269139</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>29.40044755342733</v>
+        <v>42.247339042531</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>35.82886483478463</v>
+        <v>48.57997475073996</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>14.01249277516889</v>
+        <v>17.75718748254031</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>30.65768384583803</v>
+        <v>30.70949017730646</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>36.29528916917672</v>
+        <v>39.1933961835367</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>8.872276028281931</v>
+        <v>6.76073007690848</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>26.82247474034302</v>
+        <v>30.33866612099769</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>33.2266936268813</v>
+        <v>41.78307952273614</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>16.62835027869064</v>
+        <v>6.754406815244472</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>33.09328720967024</v>
+        <v>50.29374889614946</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>38.79789355457103</v>
+        <v>65.98817753566283</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>36.98879827522251</v>
+        <v>63.83929927180922</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>45.51621954372044</v>
+        <v>67.84476449462457</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>49.68902984376872</v>
+        <v>79.08414231354911</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>18.9642301947738</v>
+        <v>23.36803497570114</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>38.65389485936684</v>
+        <v>59.41514058397772</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>45.69351277991949</v>
+        <v>70.32062871066537</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>27.95594729843589</v>
+        <v>44.85022229972306</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>25.87431896599509</v>
+        <v>20.99840910660759</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>34.33616376696715</v>
+        <v>28.30811528001954</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>38.36006499742048</v>
+        <v>38.92610550342994</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>9.321804482745698</v>
+        <v>10.37158442562357</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>28.23097560497241</v>
+        <v>37.98037554348821</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>34.67976397550393</v>
+        <v>44.53191365879089</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>12.925229645296</v>
+        <v>14.70130350977963</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>29.54521941110172</v>
+        <v>33.02441190099614</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>35.19807880713488</v>
+        <v>44.14527229292742</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>7.70249179966342</v>
+        <v>9.284857687859919</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>25.62133195251495</v>
+        <v>31.95595312722866</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>32.04215431379687</v>
+        <v>44.30853490069143</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>15.40472215445275</v>
+        <v>4.701044279152377</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>31.84462555760415</v>
+        <v>45.40257639016431</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>37.56487245391407</v>
+        <v>64.97524421292576</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>35.79820931297523</v>
+        <v>51.24026627683443</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>44.33214284916374</v>
+        <v>60.14359977368034</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>48.51585122668236</v>
+        <v>76.5090596646445</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>17.82446752935837</v>
+        <v>17.11560859375911</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>37.47754365883897</v>
+        <v>53.42542056198509</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>44.53901093506752</v>
+        <v>70.06471494605648</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>-22.56822511984055</v>
+        <v>8.147781827135461</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>-6.973744793928233</v>
+        <v>20.22483608029321</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>-2.46047076951416</v>
+        <v>31.16903433576222</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>-27.05147137357307</v>
+        <v>5.13747351730494</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>-10.21093622902694</v>
+        <v>29.16339862923209</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>-5.088172275466732</v>
+        <v>30.92195651076119</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>-22.85258047096288</v>
+        <v>9.164397553462742</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>-7.427703659086916</v>
+        <v>50.6636651902059</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>-2.852800318615635</v>
+        <v>53.35638751500564</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>-1.247538107042786</v>
+        <v>26.9771660268773</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>6.187902640436349</v>
+        <v>33.78158201808259</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>9.509020935443836</v>
+        <v>34.66969965335376</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>-17.29107888114021</v>
+        <v>19.43571475785136</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>0.8359842204586982</v>
+        <v>15.81584572369629</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>6.608531175109377</v>
+        <v>35.62147016775344</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>-19.71026707903839</v>
+        <v>13.41106139179291</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>-3.844437690884632</v>
+        <v>30.84805312471049</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>0.7326679588482818</v>
+        <v>29.36987940787228</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>-25.38552145568218</v>
+        <v>4.750684103925835</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-8.334874098066834</v>
+        <v>22.76538997611669</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>-3.099847567528087</v>
+        <v>20.56456862591083</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>-20.76706992666327</v>
+        <v>3.570240538361311</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>-5.037585677781323</v>
+        <v>35.67230275844579</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>-21.21715529549668</v>
+        <v>16.01348366784692</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>-5.539186009666523</v>
+        <v>33.62015204214686</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>-1.031441561048865</v>
+        <v>36.75220573351332</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>-25.5883423581443</v>
+        <v>6.722960625144328</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>-8.651432584918254</v>
+        <v>44.74230288330436</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>-3.534110700639403</v>
+        <v>43.4483372237864</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>-21.29959262174259</v>
+        <v>9.877766551647198</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>-5.791949227298758</v>
+        <v>65.19519573854649</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>-1.222940372949338</v>
+        <v>60.52479081908417</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>0.3204507597603765</v>
+        <v>55.07694946220573</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>7.768048800721218</v>
+        <v>61.46101195071991</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>11.08697271065558</v>
+        <v>59.76153440437002</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>-15.84822352732103</v>
+        <v>22.75789705151372</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>2.388913498080868</v>
+        <v>38.88983421556284</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>8.149969335777293</v>
+        <v>47.58532171911937</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>-18.34670687433282</v>
+        <v>22.88629482807353</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>-2.397489988408879</v>
+        <v>42.52422306909527</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>2.175702164992671</v>
+        <v>38.5663685748117</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>-23.91243593397013</v>
+        <v>7.369130524402046</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>-6.765589912382012</v>
+        <v>37.532270550136</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>-1.534391391948489</v>
+        <v>36.51824334095799</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>-19.20198356674905</v>
+        <v>8.635713019836686</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>-3.389843953006903</v>
+        <v>58.24509231091981</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>-20.89641224858383</v>
+        <v>6.642534078185093</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>-5.212814581439901</v>
+        <v>26.23420296889419</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>-0.7056928181818449</v>
+        <v>30.54378476768984</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>-25.22893802788948</v>
+        <v>2.510542600880935</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>-8.285042201140229</v>
+        <v>40.36166966551429</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>-3.167737260651407</v>
+        <v>42.17128955275881</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>-20.92953124524303</v>
+        <v>6.403088503705408</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>-5.416170856682101</v>
+        <v>61.30380967346205</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>-0.8479599978451802</v>
+        <v>59.53129234750354</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>0.6818851066971376</v>
+        <v>58.37333354431535</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>8.124648924182459</v>
+        <v>61.84435459592726</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>11.44313005389115</v>
+        <v>62.35275434210093</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>-15.50502856335589</v>
+        <v>9.192382575546858</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>2.744819480428873</v>
+        <v>27.87394385475371</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>8.503159140935743</v>
+        <v>37.19613837779121</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>-18.02300618329797</v>
+        <v>16.86432492849757</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>-2.068666520677368</v>
+        <v>35.96733462908144</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>2.50442856650983</v>
+        <v>35.43068361545203</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>-23.5500585663053</v>
+        <v>4.569260515792074</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>-6.396719684044143</v>
+        <v>32.62969688800669</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>-1.165026689947979</v>
+        <v>36.69437880151364</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>-18.82866852811389</v>
+        <v>6.064494881107677</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>-3.011345350860537</v>
+        <v>52.5469396078224</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>-21.88746991451323</v>
+        <v>1.183421380604848</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>-6.226233612111116</v>
+        <v>22.26118706273839</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>-1.705445957551291</v>
+        <v>30.84406574882824</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>-26.29297727064396</v>
+        <v>5.240496934680309</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>-9.377126530959288</v>
+        <v>41.14614588539829</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>-4.244666377045647</v>
+        <v>46.5098754595703</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>-22.0423549971644</v>
+        <v>5.340585153408462</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>-6.551191978066754</v>
+        <v>60.34783706637074</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>-1.968998849388228</v>
+        <v>62.57298631426026</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>-0.4021479105623058</v>
+        <v>53.94624707834766</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>7.04619885953916</v>
+        <v>59.48803225467049</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>10.37378531702139</v>
+        <v>59.95555831091753</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>-16.54112361925175</v>
+        <v>9.350035871493446</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>1.675309458675045</v>
+        <v>25.71787003162971</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>7.453926416715838</v>
+        <v>42.55811036385261</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>-19.01777786001965</v>
+        <v>9.994173518058844</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>-3.085280873010632</v>
+        <v>33.18421463804105</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>1.500617450461235</v>
+        <v>33.93559624292241</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>-24.61840306099987</v>
+        <v>4.391723916418293</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>-7.492659551069579</v>
+        <v>31.75042241963011</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>-2.246585980717214</v>
+        <v>36.28293230119443</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>-19.94647705724866</v>
+        <v>3.427441215773435</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>-4.150765347006171</v>
+        <v>47.88731927871203</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>-0.4178152205330292</v>
+        <v>34.36109377626674</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>0.7164692245808482</v>
+        <v>30.25815681366249</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>8.75054893249694</v>
+        <v>45.86845351844421</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>12.24505816981635</v>
+        <v>44.23506654882288</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>-14.80573862938758</v>
+        <v>20.24734300253895</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>4.102367271658395</v>
+        <v>30.94100854352298</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>9.826398483131435</v>
+        <v>34.34255737099613</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>-13.68830738014461</v>
+        <v>17.14711551671559</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>2.662311713179079</v>
+        <v>28.49429744305709</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>7.67236904039364</v>
+        <v>36.70062460312237</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>-18.50259862180802</v>
+        <v>5.215945169978504</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-0.7702881132710786</v>
+        <v>22.32943859433505</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>4.871180346435708</v>
+        <v>24.26262473997071</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>-12.98013906294679</v>
+        <v>7.899416123552164</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>3.208650803232857</v>
+        <v>39.78331344968685</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>8.289844117277326</v>
+        <v>54.18131286116324</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>9.69575490432841</v>
+        <v>34.70464909840546</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>17.75070272200279</v>
+        <v>51.44050955417394</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>21.4205059618128</v>
+        <v>55.91640188594545</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>-7.068014081606577</v>
+        <v>20.40973648925694</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>12.42446551626391</v>
+        <v>35.322367163873</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>18.70447407347007</v>
+        <v>47.10337394544283</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>1.225704017956943</v>
+        <v>58.07015365844173</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>2.293744735450545</v>
+        <v>57.44872650695779</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>10.33993071530561</v>
+        <v>65.71335030608373</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>13.83295769117915</v>
+        <v>63.8592342936406</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>-13.35057119589098</v>
+        <v>30.09223751649315</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>5.668488808556901</v>
+        <v>61.15114590875981</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>11.38266773265165</v>
+        <v>58.14874101302239</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>-12.29032359995111</v>
+        <v>24.07783976219449</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>-16.99340348590802</v>
+        <v>8.324645627777748</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>0.8363614315003502</v>
+        <v>44.70192701482184</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>6.472641148717429</v>
+        <v>43.14598970357191</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>-11.37636366107245</v>
+        <v>11.40058791864106</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>4.896289078317622</v>
+        <v>67.95818218904463</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>9.971489529964202</v>
+        <v>72.97809936354605</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>11.31057877610586</v>
+        <v>73.0646047607103</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>19.37797430869368</v>
+        <v>79.02573715739624</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>23.04498069837687</v>
+        <v>81.1066340761538</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>-5.575814212063079</v>
+        <v>36.18979371191863</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>14.02777524244269</v>
+        <v>74.73997825149212</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>20.29727058798724</v>
+        <v>75.61425973021517</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>1.603957833476443</v>
+        <v>59.95921074538545</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>2.657110701892563</v>
+        <v>53.57522591104605</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>10.69782847129389</v>
+        <v>58.18656914393319</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>14.19061732402985</v>
+        <v>62.03802259504146</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>-13.00435976948873</v>
+        <v>22.17340195213865</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>6.026499508426511</v>
+        <v>55.47072944377607</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>11.73862356710527</v>
+        <v>55.24297957628244</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>-11.9575760446136</v>
+        <v>15.78813350451204</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>4.48279092566456</v>
+        <v>36.32633248304179</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>9.486161174765677</v>
+        <v>39.88931641650417</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>-16.62219473073769</v>
+        <v>4.061858216114636</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>1.213977989178318</v>
+        <v>41.0765719194652</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>6.849829781781523</v>
+        <v>43.72565250520315</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>-10.99398593037829</v>
+        <v>6.624510357176781</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>5.28394886111731</v>
+        <v>63.24435885784555</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>10.35785409946599</v>
+        <v>73.26333416903648</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>11.68180361038782</v>
+        <v>71.07547185518979</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>19.74377003976329</v>
+        <v>75.89480727661822</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>23.40980334309427</v>
+        <v>82.03062785319591</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>-5.22174938451721</v>
+        <v>25.11330464801738</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>14.39348206196955</v>
+        <v>69.05085204116588</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>20.6600874271307</v>
+        <v>72.7763636499096</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>0.4775873449739834</v>
+        <v>55.26093797009846</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>1.569289319645705</v>
+        <v>40.66091754567388</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>9.6166010829835</v>
+        <v>48.08412957972366</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>13.1184213004416</v>
+        <v>49.58814339813807</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>-14.0448347003172</v>
+        <v>19.44839075820612</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>4.95339248550016</v>
+        <v>52.68890720105293</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>10.68474355740856</v>
+        <v>55.01998387696415</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>-12.95828007541314</v>
+        <v>13.55060149171843</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>3.460504694605604</v>
+        <v>38.88037005920827</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>8.478439885773653</v>
+        <v>45.54316123919444</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>-17.69605774634626</v>
+        <v>8.036737709328982</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>0.113115455341827</v>
+        <v>43.57606799855116</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>5.764862287229846</v>
+        <v>49.46694749606048</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-12.11698139123619</v>
+        <v>7.417547498035368</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>4.13953479888886</v>
+        <v>61.52045074801324</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>9.228363186236962</v>
+        <v>75.89821143529682</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>10.5917062278309</v>
+        <v>64.02963679222577</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>18.66020324508436</v>
+        <v>74.96779290883464</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>22.33632222094344</v>
+        <v>83.95906386799797</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>-6.266852629020292</v>
+        <v>23.3381200646031</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>13.31681054669286</v>
+        <v>71.01181197921588</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>19.60401353293577</v>
+        <v>80.42679723224921</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>-3.589334320752016</v>
+        <v>11.6642227102512</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>12.8753831502461</v>
+        <v>27.21560745552142</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>17.45421902760751</v>
+        <v>33.64801616680941</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>-7.656544923874208</v>
+        <v>-1.016906126859137</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>10.0921726552435</v>
+        <v>20.96196001766473</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>15.26572594175423</v>
+        <v>22.80294960784946</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-1.747139885808409</v>
+        <v>2.151636232703758</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>14.54151665859995</v>
+        <v>46.99764243896913</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>19.18302223061233</v>
+        <v>47.23751820565808</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>18.95302580814553</v>
+        <v>22.75134760808687</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>26.84704222878327</v>
+        <v>31.4072308798434</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>30.31108485334557</v>
+        <v>28.31473240743298</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>1.33472334657111</v>
+        <v>8.120942137476966</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>20.74586647393659</v>
+        <v>15.87181910241241</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>26.61584287501437</v>
+        <v>22.1342692855909</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>-1.803585302622295</v>
+        <v>15.36981117960082</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>14.91537355810766</v>
+        <v>34.01924287643225</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>19.5920038416856</v>
+        <v>32.82985010483663</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>-7.123731178601247</v>
+        <v>3.924966304045903</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>10.80864601065991</v>
+        <v>21.13159690569018</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>16.13530715177136</v>
+        <v>21.76273571754407</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-0.8687419093144797</v>
+        <v>2.209556345577887</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>15.70974900307343</v>
+        <v>37.10302474494119</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>-2.109668052363475</v>
+        <v>22.36213872136813</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>14.44406683773638</v>
+        <v>44.37282988301447</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>19.01619914319976</v>
+        <v>42.89143412214445</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>-6.056216372986952</v>
+        <v>4.95574419291674</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>11.79517078535797</v>
+        <v>42.61291847446058</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>16.96190314019679</v>
+        <v>40.78287305864193</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>-0.04845932424292698</v>
+        <v>7.294990653862563</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>16.3284733710966</v>
+        <v>66.91398675185783</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>20.96287761144708</v>
+        <v>59.91255658529345</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>20.66324447411587</v>
+        <v>54.35903895959915</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>28.57087404515851</v>
+        <v>63.35810197710351</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>32.03247586832434</v>
+        <v>57.81896878837152</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>2.911240319933256</v>
+        <v>16.44138260321935</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>22.44035861251451</v>
+        <v>45.36921622896232</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>28.29744159036712</v>
+        <v>42.50477790916676</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>-0.3132797568760139</v>
+        <v>24.64224089298524</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>16.49452733558222</v>
+        <v>47.0891439897229</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>21.16624438027954</v>
+        <v>44.21979307943491</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>-5.515529814229623</v>
+        <v>8.124415227275321</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>12.51922046472522</v>
+        <v>39.66126544322685</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>17.84086208888733</v>
+        <v>41.4072989195891</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>0.8398986879804795</v>
+        <v>8.61582987240849</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>17.50649697869228</v>
+        <v>62.85620187327553</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>-1.783032189620769</v>
+        <v>11.57442711087577</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>14.77686435799029</v>
+        <v>35.1787680145616</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>19.34840755672235</v>
+        <v>34.70733767630833</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>-5.688597183568461</v>
+        <v>0.06405216797076108</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>12.17039975651099</v>
+        <v>37.20104296803121</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>17.33723397626306</v>
+        <v>38.39588755046697</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>0.3297786539305605</v>
+        <v>3.363116488045726</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>16.71297514310205</v>
+        <v>61.76380366877</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>21.34659816799896</v>
+        <v>57.65350688850324</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>21.03342325089524</v>
+        <v>55.47438993604487</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>28.93618636482541</v>
+        <v>61.4856571855276</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>32.39736432700833</v>
+        <v>58.68840562050092</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>3.262573616811991</v>
+        <v>2.248958366622674</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>22.80527620906594</v>
+        <v>32.61210648693862</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>28.65959319657782</v>
+        <v>29.54707471000781</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>0.01705229561234489</v>
+        <v>18.39247298731279</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>16.83050821073962</v>
+        <v>39.7560074413025</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>21.50218922386674</v>
+        <v>40.65210217326229</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>-5.14424676065606</v>
+        <v>5.689240005984281</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>12.89760663194652</v>
+        <v>34.59497571315122</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>18.21988989134377</v>
+        <v>41.69357161707002</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>1.222142871855098</v>
+        <v>6.59973754734721</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>17.89446606468999</v>
+        <v>56.58716088334361</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>-2.819545852451725</v>
+        <v>9.177498821508152</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>13.71622389142282</v>
+        <v>34.32197704176468</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>18.30246398436226</v>
+        <v>38.04821268214719</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>-6.802326672398564</v>
+        <v>5.67850399559206</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>11.02645497086311</v>
+        <v>40.1538056486193</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>16.20961910108448</v>
+        <v>46.12341111730795</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-0.8350017651322048</v>
+        <v>5.330020534946158</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>15.52423237904097</v>
+        <v>63.96229711853199</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>20.17288948896483</v>
+        <v>63.67783675596844</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>19.89802037171558</v>
+        <v>53.99135354065243</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>27.80631220268368</v>
+        <v>62.10180290516534</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>31.2770958555534</v>
+        <v>60.80828673421514</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>2.177603781808045</v>
+        <v>6.669004852571128</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>21.68448742666096</v>
+        <v>35.52311040198034</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>27.56033699348301</v>
+        <v>37.73864115526073</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>-1.024146862259471</v>
+        <v>13.76583737232537</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>15.76570641911462</v>
+        <v>38.1477109646121</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>20.45117771941982</v>
+        <v>40.08432064655816</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>-6.263224806181796</v>
+        <v>7.457941494004977</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>11.74888455773077</v>
+        <v>34.18339275469162</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>17.08668344351103</v>
+        <v>42.54312076977673</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>0.05132335442647218</v>
+        <v>6.232331045549849</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>16.70027369326277</v>
+        <v>52.81475820770988</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>20.42995477793301</v>
+        <v>36.85966876704719</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>19.78247248949231</v>
+        <v>32.97085384680202</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>28.2886916404745</v>
+        <v>50.34193295596199</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>31.93717017951329</v>
+        <v>47.72796376508841</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>2.754724500705066</v>
+        <v>15.68786673278353</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>22.94187649770383</v>
+        <v>31.09923183306773</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>28.81039340308523</v>
+        <v>34.88914944097849</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>5.214621599882619</v>
+        <v>21.01951317504436</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>22.46222543732034</v>
+        <v>35.56873153502395</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>27.56668836849538</v>
+        <v>39.62670458565943</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>0.8789587084973931</v>
+        <v>2.986261676329029</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>19.55199481758575</v>
+        <v>21.43118536790815</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>25.27497166413292</v>
+        <v>23.17443100017794</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>8.164767230088387</v>
+        <v>5.198491343017828</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>25.24543224951126</v>
+        <v>41.89281339136618</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>30.4224658310555</v>
+        <v>53.42460860666333</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>30.06016403260134</v>
+        <v>37.83703229074687</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>38.57010251513621</v>
+        <v>54.23228890508491</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>42.40763949793425</v>
+        <v>58.74447646689493</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>11.70170233534032</v>
+        <v>16.40814679646646</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>32.50974599891386</v>
+        <v>37.24461448725805</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>38.91371606351806</v>
+        <v>45.03922576757338</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>22.22145063133075</v>
+        <v>64.95939146803121</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>21.49996654536723</v>
+        <v>62.4977445091231</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>30.01969186358673</v>
+        <v>74.55031976879826</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>33.66647231249184</v>
+        <v>70.79559030493846</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>4.341690349597556</v>
+        <v>26.94178003533789</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>24.64760261799557</v>
+        <v>65.12747505726705</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>30.50512753569462</v>
+        <v>64.23377977300549</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>6.74300302024939</v>
+        <v>29.34493523359256</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>24.08067736213773</v>
+        <v>52.40243954437208</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>29.17837307987262</v>
+        <v>48.82733147072897</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>2.526984201184419</v>
+        <v>8.183703574057283</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>21.30372796327936</v>
+        <v>47.71942856796083</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>27.02014570125847</v>
+        <v>44.82267865464518</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>9.916259197238851</v>
+        <v>10.38427088169949</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>27.08628167757517</v>
+        <v>73.29264520952697</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>32.25610938536166</v>
+        <v>74.86558281051381</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>31.81928610244055</v>
+        <v>79.90731563991582</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>40.34313488021819</v>
+        <v>87.17832642829825</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>44.17756285318102</v>
+        <v>88.54531773809637</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>13.32962827789729</v>
+        <v>34.63518403902196</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>34.25659411081245</v>
+        <v>81.10694076688779</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>40.64876470601529</v>
+        <v>78.41462328354814</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>22.60921896277429</v>
+        <v>66.98327979193792</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>21.87273759067882</v>
+        <v>57.85393889280959</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>30.38693951789465</v>
+        <v>66.11792087006899</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>34.03350908036597</v>
+        <v>69.0732673115069</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>4.696706297489186</v>
+        <v>19.59518241072576</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>25.01526213509298</v>
+        <v>59.09234472276761</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>30.87072734570582</v>
+        <v>60.64982679877614</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>7.082667156858719</v>
+        <v>20.14435620295034</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>24.42603120460366</v>
+        <v>44.44845064308465</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>29.52264458900984</v>
+        <v>43.71587054461138</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>2.907261444417202</v>
+        <v>3.479802650898684</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>21.69098810205142</v>
+        <v>43.03231477746885</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>27.40708306369715</v>
+        <v>44.59569366667549</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>10.30775037074446</v>
+        <v>5.375782099131321</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>27.4835696012794</v>
+        <v>67.2186259253078</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>32.65210250820981</v>
+        <v>74.37574564677433</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>32.20004928539105</v>
+        <v>76.54624591322207</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>40.71844041618613</v>
+        <v>82.38172339486613</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>44.55187766477484</v>
+        <v>88.85807062902379</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>13.69265086673425</v>
+        <v>23.71068542271163</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>34.63208028070435</v>
+        <v>74.38552519923965</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>41.0213305937533</v>
+        <v>74.33223479983846</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>21.42908180926189</v>
+        <v>63.01050029194977</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>20.73251979051592</v>
+        <v>45.24173247997182</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>29.25332010692507</v>
+        <v>54.94752856454158</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>32.90942643094781</v>
+        <v>57.44116476877321</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>3.606385795951724</v>
+        <v>19.15977239105596</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>23.88994123829387</v>
+        <v>57.75177972636467</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>29.76581393385814</v>
+        <v>60.64357359575521</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>6.03544593255657</v>
+        <v>18.1948646093041</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>23.35552263455731</v>
+        <v>46.72192097926729</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>28.46778080687476</v>
+        <v>49.35402125751134</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>1.782856229735131</v>
+        <v>8.250088210404876</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>20.53749869322996</v>
+        <v>45.46737125925957</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>26.27070764029099</v>
+        <v>51.35973753181529</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>9.131804159791912</v>
+        <v>7.301914928140853</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>26.28450166481086</v>
+        <v>65.75736629439419</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>31.46905853361585</v>
+        <v>77.79285160017392</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>31.05776319790854</v>
+        <v>68.41849559288059</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>39.58261721143068</v>
+        <v>79.06508953043672</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>43.42672892332938</v>
+        <v>89.844053196299</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>12.59781356682724</v>
+        <v>22.43889000309435</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>33.50337223241202</v>
+        <v>76.78460459111986</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>39.9144489634629</v>
+        <v>81.99570914233868</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>10.25637919992354</v>
+        <v>13.19576924713682</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>26.28820553563106</v>
+        <v>16.74916631954478</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>30.9843962600163</v>
+        <v>25.46898541426271</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>6.460660388354867</v>
+        <v>0.1980301965732707</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>23.71803125872413</v>
+        <v>10.94813016135664</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>28.99725506959942</v>
+        <v>13.07513969610824</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>13.07649402303879</v>
+        <v>5.350978248846225</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>28.91761808500063</v>
+        <v>27.17008057964847</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>33.68781509359314</v>
+        <v>30.82375045787799</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>32.24867300556711</v>
+        <v>12.63439190135801</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>39.94501928433475</v>
+        <v>16.65760020138509</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>43.55591936461943</v>
+        <v>18.21728327526287</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>14.58436021308862</v>
+        <v>12.13360847173267</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>33.49598250965577</v>
+        <v>15.23376532242767</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>39.58464489015782</v>
+        <v>27.41632979132318</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>12.03124654113957</v>
+        <v>9.097107347375356</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>28.35985823311089</v>
+        <v>18.23051817822773</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>33.16706989585245</v>
+        <v>20.05189397218838</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>6.961431390183094</v>
+        <v>-1.669992681528107</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>24.44172247338868</v>
+        <v>3.869805579710935</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>29.89197027097792</v>
+        <v>5.850407244475484</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>13.92269754147349</v>
+        <v>-0.9245635030208845</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>30.09945957578798</v>
+        <v>14.75252874472405</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>11.77665575512956</v>
+        <v>14.97145135715267</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>27.89731219438384</v>
+        <v>23.27031675988826</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>32.58703065322927</v>
+        <v>25.55590539924631</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>8.104903730599261</v>
+        <v>-0.4411273857779427</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>25.46475865042532</v>
+        <v>23.44177622139355</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>30.73746141838546</v>
+        <v>23.04649206718781</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>14.82110987801555</v>
+        <v>4.215278711335884</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>30.75029367109415</v>
+        <v>38.77612663632927</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>35.51361861227102</v>
+        <v>36.56384736283513</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>34.00291840738466</v>
+        <v>37.00905916132211</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>41.71260468074428</v>
+        <v>41.69529690211762</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>45.32143246926466</v>
+        <v>41.70857334457508</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>16.20383544747825</v>
+        <v>17.12527291537742</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>35.2334027996482</v>
+        <v>40.01336833056755</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>41.30952485440584</v>
+        <v>43.89916874393721</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>13.56304026923369</v>
+        <v>11.81933432751672</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>29.98043130325384</v>
+        <v>24.13863668431856</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>34.78298493647044</v>
+        <v>25.06931597791386</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>8.6144170391388</v>
+        <v>-1.630464743589073</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>26.19701756424338</v>
+        <v>17.10646460523935</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>31.64257179516076</v>
+        <v>21.17151049846952</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>15.67814977445001</v>
+        <v>1.07177137062078</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>31.94292577359123</v>
+        <v>35.13186988441149</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>12.09688159014766</v>
+        <v>7.162586274563196</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>28.22415439990053</v>
+        <v>16.61724281936833</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>32.9133075183057</v>
+        <v>20.46837556748844</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>8.466755720373378</v>
+        <v>-2.890297054474388</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>25.83473154759604</v>
+        <v>20.14195795086474</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>31.1075927462434</v>
+        <v>23.19416682441816</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>15.19322873705101</v>
+        <v>3.173982600534153</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>31.12913797893444</v>
+        <v>36.03501281787216</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>35.89169595015594</v>
+        <v>37.49908649431182</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>34.36821561913799</v>
+        <v>39.27708778433365</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>42.07319830168019</v>
+        <v>41.58680636443061</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>45.68161031273776</v>
+        <v>45.03804556413451</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>16.54995850654447</v>
+        <v>5.493249008135244</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>35.59379003239506</v>
+        <v>30.02515161633369</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>41.66713399201763</v>
+        <v>34.48515314302292</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>13.88725809656172</v>
+        <v>6.936330792033857</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>30.31073924650958</v>
+        <v>17.85578743595869</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>35.11327506344696</v>
+        <v>23.19451938566899</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>8.980255110330582</v>
+        <v>-3.237982715471816</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>26.57046133824683</v>
+        <v>12.74611867563274</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>32.01670648562028</v>
+        <v>22.7439012838686</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>16.05460584121668</v>
+        <v>0.2467070492351979</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>32.32555290488909</v>
+        <v>29.66192936936378</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>11.0595082808569</v>
+        <v>2.130091186640382</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>27.16208122246997</v>
+        <v>12.98659448443154</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>31.86598938174357</v>
+        <v>21.10135291244278</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>7.350729512677944</v>
+        <v>-2.322103858577137</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>24.68781376258897</v>
+        <v>18.28886474447031</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>29.97700363041613</v>
+        <v>26.46034159061796</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>14.02608822445602</v>
+        <v>-0.5650447949402775</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>29.93745385650119</v>
+        <v>32.40552573544508</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>34.7151246355287</v>
+        <v>38.39790697397469</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>33.22897128445204</v>
+        <v>32.17372102194718</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>40.93928373628403</v>
+        <v>36.6417227764962</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>44.55735910329969</v>
+        <v>40.94266688716088</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>15.46163641626505</v>
+        <v>3.221228124193168</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>34.46891126368298</v>
+        <v>25.65256419931324</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>40.56394577347604</v>
+        <v>36.46518592958483</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>12.84476950941636</v>
+        <v>2.99536201931172</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>29.24408060510635</v>
+        <v>16.37930802916831</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>34.06047346839197</v>
+        <v>23.35859115144624</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>7.858519512672807</v>
+        <v>-2.708893210699181</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>25.41830371495607</v>
+        <v>10.75528556745174</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>30.88007991679433</v>
+        <v>22.63517361772976</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>14.88096620501155</v>
+        <v>-1.269741734076369</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>31.12796772164261</v>
+        <v>24.34218594154141</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>34.96048905410728</v>
+        <v>16.13460917733947</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>33.08041579159023</v>
+        <v>12.4748801894273</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>41.40909058764714</v>
+        <v>23.46083849253161</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>45.21047383570311</v>
+        <v>22.72534178986172</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>15.97955649879663</v>
+        <v>2.156366624703644</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>35.72375575929919</v>
+        <v>10.12504626680636</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>41.82243160495909</v>
+        <v>15.3927734874831</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>19.43390783420254</v>
+        <v>17.01847945142143</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>36.35516799762102</v>
+        <v>22.97885593084967</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>41.56870522098841</v>
+        <v>30.68103326766603</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>15.29456466596431</v>
+        <v>-1.838170979288215</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>33.5990897584747</v>
+        <v>6.196491692937052</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>39.42214452846551</v>
+        <v>10.52134401758962</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>23.36135963954313</v>
+        <v>2.937333031985723</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>40.10249846078138</v>
+        <v>24.03749203529188</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>45.39943103030263</v>
+        <v>36.0377171060267</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>43.78577814501019</v>
+        <v>22.96763010984821</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>52.12077075853336</v>
+        <v>33.61347262875903</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>56.09713678706654</v>
+        <v>37.05920695699245</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>25.27700503947154</v>
+        <v>6.620432950413239</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>45.70693268809622</v>
+        <v>17.10761114562482</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>52.29986769707371</v>
+        <v>28.32914354753688</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>36.79895545548971</v>
+        <v>39.32963269162192</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>34.84280004667943</v>
+        <v>36.31603497337529</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>43.18475246780955</v>
+        <v>43.58766962016644</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>46.98479536326717</v>
+        <v>41.93898161702726</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>17.61028580755313</v>
+        <v>10.76745595311772</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>37.47337330271234</v>
+        <v>40.65603174983013</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>43.56144651156448</v>
+        <v>42.43250895580709</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>21.00679227493442</v>
+        <v>22.97356020835971</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>38.01823290513426</v>
+        <v>37.16989836640376</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>43.22514554650762</v>
+        <v>38.35769774424843</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>16.99037880693017</v>
+        <v>4.184125954404898</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>35.39878836451818</v>
+        <v>32.7409241041667</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>41.21548096999014</v>
+        <v>33.69186532371436</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>25.1629363808787</v>
+        <v>9.369168072212823</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>41.99351431554796</v>
+        <v>56.18184471853844</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>47.28338112605341</v>
+        <v>59.08864034454653</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>45.5928703418582</v>
+        <v>66.81319636054744</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>53.94160019429155</v>
+        <v>69.67016581202162</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>57.91512606591584</v>
+        <v>70.03034385292506</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>26.95161191469825</v>
+        <v>29.25944976924307</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>47.50075429273616</v>
+        <v>64.42079157549171</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>54.08213951331867</v>
+        <v>67.36039221626095</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>37.18139115433657</v>
+        <v>43.03189506423762</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>35.2109755611692</v>
+        <v>31.44412968715273</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>43.54755865124444</v>
+        <v>35.92630778451473</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>47.34739324879209</v>
+        <v>41.68682931021279</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>17.9603957315981</v>
+        <v>4.373993616878025</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>37.83679646206132</v>
+        <v>35.85374885722066</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>43.92278991842718</v>
+        <v>41.20979163464315</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>21.34095076677985</v>
+        <v>16.17088556928007</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>38.35854122213557</v>
+        <v>31.69439034123614</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>43.56436383906075</v>
+        <v>36.22699100616544</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>17.36588684478347</v>
+        <v>1.737749894380535</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>35.78179911103102</v>
+        <v>30.54391442575322</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>41.59818727947616</v>
+        <v>36.33804326821154</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>25.54930900420378</v>
+        <v>7.035240265752357</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>42.38615059987945</v>
+        <v>52.87895971048683</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>47.67470546166645</v>
+        <v>62.0915375788615</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>45.9696319472951</v>
+        <v>64.95184578428228</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>54.31308064546113</v>
+        <v>67.50370445076371</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>58.28559951805393</v>
+        <v>73.55092881478643</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>27.31032321744686</v>
+        <v>20.48532008235934</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>47.87262137155462</v>
+        <v>60.69263490005827</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>54.45105055053911</v>
+        <v>67.30150439793189</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>35.99794695017799</v>
+        <v>38.87580129939898</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>34.06651921808788</v>
+        <v>18.37492903727883</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>42.40950598139295</v>
+        <v>23.52549013503772</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>46.21895499418895</v>
+        <v>28.8950271419388</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>16.86630769238317</v>
+        <v>1.856008965210528</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>36.70697700659944</v>
+        <v>32.0402143192835</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>42.81353039019423</v>
+        <v>39.8138476300744</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>20.29134361995852</v>
+        <v>12.06191736780399</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>37.28508738514218</v>
+        <v>31.32843870464884</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>42.50665103566428</v>
+        <v>39.40672973552214</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>16.23753985161788</v>
+        <v>2.142181245410818</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>34.62369449439723</v>
+        <v>27.91086124174083</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>40.45724837478122</v>
+        <v>38.37873166907521</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>24.36933509724435</v>
+        <v>4.454398161388362</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>41.18249001478902</v>
+        <v>46.68279193626174</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>46.48718472375236</v>
+        <v>61.61653109909884</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>44.82205954191457</v>
+        <v>51.28872753563171</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>53.17175178177042</v>
+        <v>58.36363441698867</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>57.15504750051535</v>
+        <v>68.85487458028928</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>26.21062753502188</v>
+        <v>11.89250518711646</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>46.73834146540074</v>
+        <v>55.96674962056179</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>53.33876417035691</v>
+        <v>68.04163628258033</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>20.02178948963466</v>
+        <v>12.57493166818013</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>37.34688525490399</v>
+        <v>16.39675507552781</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>42.78815513336806</v>
+        <v>28.71649145507287</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>15.81880091424918</v>
+        <v>2.941495352497668</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>34.46949136205755</v>
+        <v>20.03640177307985</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>40.67750289562439</v>
+        <v>20.08394121794682</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>23.61850859376514</v>
+        <v>8.947202878404674</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>40.7428714516081</v>
+        <v>37.76127672697612</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>46.25515584732946</v>
+        <v>42.13733735180454</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>42.86005367873556</v>
+        <v>18.09676958794834</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>51.39829668507378</v>
+        <v>24.89226778886506</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>55.40883551073658</v>
+        <v>29.13579307910434</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>23.775588008394</v>
+        <v>17.09217756184523</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>43.84256085566214</v>
+        <v>16.96183003252249</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>50.75395201663662</v>
+        <v>31.60828923302821</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>23.40951532206206</v>
+        <v>11.15544107045093</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>41.10282530657058</v>
+        <v>28.06470741095115</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>46.65249527575151</v>
+        <v>37.49358318805818</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>17.79076548646616</v>
+        <v>-1.801747932570201</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>36.74231830349618</v>
+        <v>11.63056739034259</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>43.11922714159476</v>
+        <v>16.80391670722709</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>26.10806462265873</v>
+        <v>-2.047154337580025</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>43.64009696935287</v>
+        <v>23.77214377353697</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>21.69577286465517</v>
+        <v>15.89998612405478</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>39.11678678643159</v>
+        <v>27.74093130292918</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>44.55318247971773</v>
+        <v>32.6185426700643</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>17.6269493867446</v>
+        <v>2.89979433908433</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>36.38830945367786</v>
+        <v>37.25874348161497</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>42.59191410032194</v>
+        <v>36.65261810788913</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>25.53656496190067</v>
+        <v>5.998778636892354</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>42.7560005819915</v>
+        <v>53.58191667069616</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>48.26297924419987</v>
+        <v>51.58170586576666</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>44.78589565967541</v>
+        <v>50.86167836419754</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>53.33842290836718</v>
+        <v>58.98932406870458</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>57.34714121761088</v>
+        <v>59.7262815298101</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>25.55464777227145</v>
+        <v>22.19461846578692</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>45.74821271211758</v>
+        <v>49.41306661794702</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>52.64784346847815</v>
+        <v>54.41732810426025</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>25.09969619523098</v>
+        <v>20.52132165507363</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>42.88896681461442</v>
+        <v>42.56621432571315</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>48.43565999704424</v>
+        <v>50.21977409704127</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>19.61234686155093</v>
+        <v>5.564571062163999</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>38.67455218558259</v>
+        <v>34.13877227668556</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>45.04894398767198</v>
+        <v>44.81189439466414</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>28.04214219182046</v>
+        <v>6.823616125862756</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>45.66927619980648</v>
+        <v>56.95666937927167</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>22.03331937551314</v>
+        <v>6.299410197564903</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>39.46133011265523</v>
+        <v>21.35914330883923</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>44.89733832388569</v>
+        <v>28.05800323941686</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>18.0093210870923</v>
+        <v>-1.497756156105034</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>36.77933091996872</v>
+        <v>33.59375015874262</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>42.98327889880447</v>
+        <v>37.19310971042994</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>25.92947118285426</v>
+        <v>2.53472932026866</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>43.15600517848473</v>
+        <v>50.93060563279732</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>48.66239615487793</v>
+        <v>53.00924156859562</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>45.1722162543602</v>
+        <v>53.25035620840829</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>53.71928753229557</v>
+        <v>57.78664934335142</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>57.72769153539289</v>
+        <v>61.54562921529663</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>25.92016796002</v>
+        <v>8.03759939884317</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>46.12910395954817</v>
+        <v>38.33470546656078</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>53.02598356270624</v>
+        <v>45.8051624732559</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>25.44090510284505</v>
+        <v>12.16196036760333</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>43.23656515523882</v>
+        <v>34.52966691602673</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>48.78346267864316</v>
+        <v>46.32212557273153</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>19.99851171652135</v>
+        <v>0.7747630486499659</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>39.06877472344514</v>
+        <v>27.74826617094529</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>45.44408212496633</v>
+        <v>45.09105923267028</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>28.43915326277344</v>
+        <v>2.129095225035343</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>46.07274439491526</v>
+        <v>50.02411415882127</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>20.92022027601728</v>
+        <v>1.340322082834327</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>38.32152121279847</v>
+        <v>17.30772801909627</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>43.77279804827194</v>
+        <v>28.43968756240315</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>16.81082092499583</v>
+        <v>-0.4689497172287105</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>35.54743533402768</v>
+        <v>32.60525169057923</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>41.76825467320256</v>
+        <v>38.52950685863367</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>24.67605622409695</v>
+        <v>1.021541159165629</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>41.87606592208122</v>
+        <v>48.39935781275054</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>47.39809839202495</v>
+        <v>54.82265966025293</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>43.94768105658425</v>
+        <v>43.13007561486652</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>52.50087096542262</v>
+        <v>49.46832647285824</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>56.51976150323617</v>
+        <v>52.89985334474063</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>24.75140997446123</v>
+        <v>7.138364808664157</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>44.92055251926112</v>
+        <v>29.94793704139298</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>51.84037680164713</v>
+        <v>45.5944126296747</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>24.32265931786254</v>
+        <v>6.679587031905882</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>42.09221595232668</v>
+        <v>32.44659851179069</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>47.65342553775731</v>
+        <v>46.26198632053968</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>18.79401821125559</v>
+        <v>-0.1164815962252064</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>37.8314021137435</v>
+        <v>25.98799855027568</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>44.22273892598197</v>
+        <v>42.19817014943789</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>27.17895181620713</v>
+        <v>-0.02758370587520176</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>44.78670631337038</v>
+        <v>43.7941536497277</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>49.23942255339712</v>
+        <v>35.51943300319694</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>45.25582212386423</v>
+        <v>24.44523935168008</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>54.51661968339026</v>
+        <v>47.48497682286945</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>58.76071411246036</v>
+        <v>56.07509553532135</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>26.71537260762079</v>
+        <v>3.434104408552962</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>47.76924198451967</v>
+        <v>26.16173582823625</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>54.65273856812525</v>
+        <v>35.36807328140559</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>28.98662952382552</v>
+        <v>14.00402143898896</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>47.3063255894852</v>
+        <v>26.55292275135208</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>53.34905374044766</v>
+        <v>38.30826831797743</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>24.32711678571467</v>
+        <v>-2.537966749155792</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>44.14662066438866</v>
+        <v>10.53893302353853</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>50.98682993441412</v>
+        <v>15.64645093675042</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>33.60453734177553</v>
+        <v>0.01538058984979074</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>51.73328156527176</v>
+        <v>29.67565956879188</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>57.85844579117983</v>
+        <v>45.58034177472758</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>54.29431601426386</v>
+        <v>30.32041481714847</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>63.61994224150312</v>
+        <v>54.7908566101377</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>68.04287735034531</v>
+        <v>59.89543532637881</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>34.321135937541</v>
+        <v>4.214054532600962</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>56.1137110646486</v>
+        <v>29.44134830971448</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>63.64561294006021</v>
+        <v>39.50006056681642</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>51.26526085748894</v>
+        <v>72.01456477826397</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>47.19446962563408</v>
+        <v>62.87899995431574</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>56.46955669326178</v>
+        <v>78.01814591403925</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>60.71268988339649</v>
+        <v>87.22849042207753</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>28.5105681322052</v>
+        <v>23.63014208879861</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>49.69236516640647</v>
+        <v>77.29356756173374</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>56.56595168003314</v>
+        <v>81.97092935901139</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>30.71707463008794</v>
+        <v>23.76778524725739</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>49.13427357769929</v>
+        <v>47.92235422921387</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>55.17204410028518</v>
+        <v>53.5056371788779</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>26.19082774350276</v>
+        <v>6.764027672394427</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>46.12265993054422</v>
+        <v>44.07100495570668</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>52.95874019970756</v>
+        <v>49.82689901094232</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>35.58373890532945</v>
+        <v>9.863971420022231</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>53.80916991490147</v>
+        <v>73.1568123958094</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>59.92889752359785</v>
+        <v>81.23524274422945</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>56.27665498493597</v>
+        <v>86.18311328539568</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>65.61711203939181</v>
+        <v>98.56501261508694</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>70.03746767608635</v>
+        <v>100.8256418314098</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>36.15946078826816</v>
+        <v>33.35268156293005</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>58.08027058190739</v>
+        <v>94.08193783728268</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>65.60151044928087</v>
+        <v>94.76961127179644</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>51.6687653043298</v>
+        <v>74.41397639213633</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>47.5833471092563</v>
+        <v>54.4529617643983</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>56.85222041804233</v>
+        <v>65.24578743461191</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>61.09526003592487</v>
+        <v>82.49176639519794</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>28.87991402660312</v>
+        <v>13.25387479615581</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>50.07602037901121</v>
+        <v>69.80215245124688</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>56.94758935349462</v>
+        <v>79.4028310091492</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>31.07063872567519</v>
+        <v>13.58825233448996</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>49.49433598196465</v>
+        <v>40.93571903939799</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>55.53112099766425</v>
+        <v>49.9951850214246</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>26.58914857832426</v>
+        <v>1.345544823465268</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>46.52897450858771</v>
+        <v>40.33197923951079</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>53.36487077382609</v>
+        <v>51.9494448658695</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>35.99327551327361</v>
+        <v>3.561026109188823</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>54.22531187867821</v>
+        <v>68.42126939200838</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>60.34382955553296</v>
+        <v>83.39354361974861</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>56.67647051033801</v>
+        <v>81.62463235738869</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>66.01079356984864</v>
+        <v>92.64694864232487</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>70.4301780989065</v>
+        <v>100.5935803603446</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>36.53965923956608</v>
+        <v>19.73121109705426</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>58.47463041061504</v>
+        <v>86.90728741657443</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>65.9928623760574</v>
+        <v>93.25066614808981</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>50.39732974052892</v>
+        <v>68.66159121904855</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>46.35346813399011</v>
+        <v>37.2641686932248</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>55.62963974574369</v>
+        <v>51.54875804764129</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>59.88311701770009</v>
+        <v>66.79932335329127</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>27.70512917346024</v>
+        <v>9.694264607956121</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>48.86230717226707</v>
+        <v>60.31643125733878</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>55.75568316634796</v>
+        <v>72.96862869819682</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>29.9429534336337</v>
+        <v>12.14759207452567</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>48.34086197111573</v>
+        <v>42.89969081846669</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>54.39401370661321</v>
+        <v>55.94552257718382</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>25.37568017712586</v>
+        <v>5.157585111866801</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>45.28333455486677</v>
+        <v>41.08942520263448</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>52.13702371333732</v>
+        <v>54.92130887589973</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>34.7243381968594</v>
+        <v>4.198064868162454</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>52.9307729205894</v>
+        <v>63.0387183392445</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>59.06607983510357</v>
+        <v>83.88690143514</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>55.44157419146121</v>
+        <v>69.1667337669474</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>64.78313815365222</v>
+        <v>87.39441229362879</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>69.21418917237156</v>
+        <v>100.925484012659</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>35.35710075509628</v>
+        <v>15.95758972478068</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>57.25442870146635</v>
+        <v>80.25754673447025</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>64.79606330410876</v>
+        <v>93.8921541576735</v>
       </c>
     </row>
   </sheetData>
